--- a/sheet1.xlsx
+++ b/sheet1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johannesschmid/Desktop/CodeBaking/Python Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71700C48-E3C0-E843-A2ED-8F7D8C4AD922}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3569430-9BE9-9843-9D47-CC0395D56090}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16120" xr2:uid="{0E65528D-4654-8147-BC20-CC3780B0CD56}"/>
+    <workbookView xWindow="9640" yWindow="520" windowWidth="28040" windowHeight="16120" xr2:uid="{0E65528D-4654-8147-BC20-CC3780B0CD56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>hannes</t>
   </si>
   <si>
     <t>robin</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>pansi</t>
+  </si>
+  <si>
+    <t>a column again</t>
   </si>
 </sst>
 </file>
@@ -382,28 +397,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9E73E0-1162-FC46-AE4A-7C59E566AAA3}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>80000</v>
       </c>
     </row>
   </sheetData>

--- a/sheet1.xlsx
+++ b/sheet1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johannesschmid/Desktop/CodeBaking/Python Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3569430-9BE9-9843-9D47-CC0395D56090}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1D6660-14E5-8640-BB49-4975D3418DE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9640" yWindow="520" windowWidth="28040" windowHeight="16120" xr2:uid="{0E65528D-4654-8147-BC20-CC3780B0CD56}"/>
   </bookViews>
@@ -400,7 +400,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/sheet1.xlsx
+++ b/sheet1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johannesschmid/Desktop/CodeBaking/Python Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1D6660-14E5-8640-BB49-4975D3418DE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AA550E-AD3A-1344-9E89-14932D1F594B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9640" yWindow="520" windowWidth="28040" windowHeight="16120" xr2:uid="{0E65528D-4654-8147-BC20-CC3780B0CD56}"/>
+    <workbookView xWindow="760" yWindow="520" windowWidth="28040" windowHeight="16120" xr2:uid="{0E65528D-4654-8147-BC20-CC3780B0CD56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>hannes</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>robin</t>
   </si>
@@ -400,23 +397,23 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -424,10 +421,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>8374</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -446,7 +443,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>80000</v>
